--- a/biology/Botanique/Epilobium_fleischeri/Epilobium_fleischeri.xlsx
+++ b/biology/Botanique/Epilobium_fleischeri/Epilobium_fleischeri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'épilobe de Fleischer aussi appelé épilobe des moraines est une plante herbacée du genre Epilobium, de la famille des Onagraceae.
 Actuellement, il est souvent considéré comme une sous-espèce de Epilobium dodonaei et se nomme Epilobium dodonaei subsp. fleischeri (Hochst.) Schinz &amp; Thell.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante vivace de taille moyenne (20 à 45 cm) que l'on confond souvent avec Epilobium dodonaei qui est de taille plus grande. Sa fleur est odorante et possède quatre pétales arrondis et quatre sépales pointus et fins. Ses feuilles sont généralement dentées contrairement à celles de l'épilobe dodonei. Sa floraison s'effectue de fin juin à août. Sa racine rouge contient une substance 'antigel' : l'anthocyanine.
 </t>
@@ -543,7 +557,9 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme son nom l’indique, elle pousse dans les moraines et les amas d’alluvions dans les Alpes entre 1 000 et 2 500 mètres.
 </t>
